--- a/biology/Botanique/Gynerium/Gynerium.xlsx
+++ b/biology/Botanique/Gynerium/Gynerium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gynerium est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae. C'est le genre de la canne flèche, seule espèce encore acceptée dans ce genre devenu monospécifique depuis que les autres espèces ont été déplacées dans le genre Cortaderia, notamment la plante connue sous le nom de gynérium argenté ou Herbe de la pampa (Cortaderia selloana, syn. Gynerium argenteum)[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gynerium est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae. C'est le genre de la canne flèche, seule espèce encore acceptée dans ce genre devenu monospécifique depuis que les autres espèces ont été déplacées dans le genre Cortaderia, notamment la plante connue sous le nom de gynérium argenté ou Herbe de la pampa (Cortaderia selloana, syn. Gynerium argenteum). 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (10 septembre 2016)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (10 septembre 2016) :
 Gynerium sagittatum (Aubl.) P. Beauv. - canne flèche</t>
         </is>
       </c>
